--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058EAEB1-F44F-4501-B745-CFDDB6D94B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47726BC2-6A03-472B-8B5D-C2D1CBA971AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E2EB44F-1C9F-4565-9E54-7F36FEC57441}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0E10663-03F6-4C68-9AE9-63EAD8C7313A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF377DC-5F24-4E44-A872-E93FA228E1EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1238E4BF-96B1-4FE3-9A0E-B0300F6F63D7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f17_4RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47726BC2-6A03-472B-8B5D-C2D1CBA971AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA9C98-435C-44D9-BABE-5792A3F6EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0E10663-03F6-4C68-9AE9-63EAD8C7313A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{90873E61-CD5C-4C3F-9C82-09EDD7FCA49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1238E4BF-96B1-4FE3-9A0E-B0300F6F63D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F45CE-C707-4364-B566-E801A73F4949}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FA9C98-435C-44D9-BABE-5792A3F6EF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1025BBA-7F78-4BB7-B6CF-9DAC94CCB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{90873E61-CD5C-4C3F-9C82-09EDD7FCA49A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{32CA1120-C84C-45F6-9988-FCE4472008A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F45CE-C707-4364-B566-E801A73F4949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFE162B-977A-42A2-9CFB-51B349B8A60F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
